--- a/blocks/1909/TestCase-Module -1909.xlsx
+++ b/blocks/1909/TestCase-Module -1909.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8352" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8352"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -451,9 +451,6 @@
     <t>Hình 6</t>
   </si>
   <si>
-    <t xml:space="preserve">Block 1902 </t>
-  </si>
-  <si>
     <r>
       <t>- Database không có d</t>
     </r>
@@ -498,12 +495,6 @@
   </si>
   <si>
     <t>Fix bug</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>- SlideShow không có hình ảnh</t>
@@ -720,6 +711,15 @@
 - Thêm vào mục nằm dưới slide cho đủ 10 từ
 </t>
     </r>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Block 1909</t>
   </si>
 </sst>
 </file>
@@ -1415,6 +1415,42 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,23 +1463,11 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1454,193 +1478,169 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1724,7 +1724,7 @@
               <a:latin typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="1" charset="-128"/>
               <a:ea typeface="MS Gothic" panose="020B0609070205080204" pitchFamily="1" charset="-128"/>
             </a:rPr>
-            <a:t>BLOCK 1908 </a:t>
+            <a:t>BLOCK 1909 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2557,7 +2557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
@@ -4797,9 +4797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.2"/>
   <cols>
@@ -4813,7 +4811,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="19" customFormat="1" ht="23.4">
       <c r="A1" s="24" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24" t="s">
@@ -4842,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>42</v>
       </c>
       <c r="D3" s="33">
         <v>43613</v>
@@ -5005,8 +5003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10:AM11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2:AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="10.8"/>
@@ -5019,286 +5017,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="124" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="125" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="155" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
+      <c r="N1" s="149"/>
+      <c r="O1" s="149"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
+      <c r="T1" s="149"/>
+      <c r="U1" s="149"/>
+      <c r="V1" s="149"/>
+      <c r="W1" s="149"/>
+      <c r="X1" s="149"/>
+      <c r="Y1" s="149"/>
+      <c r="Z1" s="149"/>
+      <c r="AA1" s="149"/>
+      <c r="AB1" s="149"/>
+      <c r="AC1" s="149"/>
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="149"/>
+      <c r="AG1" s="149"/>
+      <c r="AH1" s="149"/>
+      <c r="AI1" s="150"/>
+      <c r="AJ1" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="126"/>
-      <c r="AL1" s="126"/>
-      <c r="AM1" s="126"/>
-      <c r="AN1" s="127" t="s">
+      <c r="AK1" s="157"/>
+      <c r="AL1" s="157"/>
+      <c r="AM1" s="157"/>
+      <c r="AN1" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="126"/>
-      <c r="AS1" s="127" t="s">
+      <c r="AO1" s="156"/>
+      <c r="AP1" s="157"/>
+      <c r="AQ1" s="157"/>
+      <c r="AR1" s="157"/>
+      <c r="AS1" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="AT1" s="126"/>
-      <c r="AU1" s="126"/>
-      <c r="AV1" s="126"/>
-      <c r="AW1" s="110" t="s">
+      <c r="AT1" s="157"/>
+      <c r="AU1" s="157"/>
+      <c r="AV1" s="157"/>
+      <c r="AW1" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="111"/>
-      <c r="AY1" s="111"/>
-      <c r="AZ1" s="112"/>
-      <c r="BA1" s="113" t="s">
+      <c r="AX1" s="133"/>
+      <c r="AY1" s="133"/>
+      <c r="AZ1" s="134"/>
+      <c r="BA1" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="BB1" s="113"/>
-      <c r="BC1" s="113"/>
-      <c r="BD1" s="113"/>
-      <c r="BE1" s="113"/>
-      <c r="BF1" s="113"/>
-      <c r="BG1" s="113"/>
-      <c r="BH1" s="113"/>
+      <c r="BB1" s="144"/>
+      <c r="BC1" s="144"/>
+      <c r="BD1" s="144"/>
+      <c r="BE1" s="144"/>
+      <c r="BF1" s="144"/>
+      <c r="BG1" s="144"/>
+      <c r="BH1" s="144"/>
       <c r="BI1" s="15"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="114"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="120" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK2" s="121"/>
-      <c r="AL2" s="121"/>
-      <c r="AM2" s="121"/>
-      <c r="AN2" s="122" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="121"/>
-      <c r="AQ2" s="121"/>
-      <c r="AR2" s="121"/>
-      <c r="AS2" s="122">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="150"/>
+      <c r="AJ2" s="151" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="152"/>
+      <c r="AL2" s="152"/>
+      <c r="AM2" s="152"/>
+      <c r="AN2" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO2" s="151"/>
+      <c r="AP2" s="152"/>
+      <c r="AQ2" s="152"/>
+      <c r="AR2" s="152"/>
+      <c r="AS2" s="153">
         <f>COUNTIF($AR:$AR,"NG")</f>
         <v>0</v>
       </c>
-      <c r="AT2" s="121"/>
-      <c r="AU2" s="121"/>
-      <c r="AV2" s="121"/>
-      <c r="AW2" s="110" t="s">
+      <c r="AT2" s="152"/>
+      <c r="AU2" s="152"/>
+      <c r="AV2" s="152"/>
+      <c r="AW2" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="AX2" s="111"/>
-      <c r="AY2" s="111"/>
-      <c r="AZ2" s="112"/>
-      <c r="BA2" s="123" t="s">
+      <c r="AX2" s="133"/>
+      <c r="AY2" s="133"/>
+      <c r="AZ2" s="134"/>
+      <c r="BA2" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="BB2" s="113"/>
-      <c r="BC2" s="113"/>
-      <c r="BD2" s="113"/>
-      <c r="BE2" s="113"/>
-      <c r="BF2" s="113"/>
-      <c r="BG2" s="113"/>
-      <c r="BH2" s="113"/>
+      <c r="BB2" s="144"/>
+      <c r="BC2" s="144"/>
+      <c r="BD2" s="144"/>
+      <c r="BE2" s="144"/>
+      <c r="BF2" s="144"/>
+      <c r="BG2" s="144"/>
+      <c r="BH2" s="144"/>
       <c r="BI2" s="15"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="148"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="156"/>
-      <c r="AJ3" s="110" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="112"/>
-      <c r="AN3" s="128"/>
-      <c r="AO3" s="129"/>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="129"/>
-      <c r="AS3" s="129"/>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="110"/>
-      <c r="AX3" s="111"/>
-      <c r="AY3" s="111"/>
-      <c r="AZ3" s="112"/>
-      <c r="BA3" s="128"/>
-      <c r="BB3" s="129"/>
-      <c r="BC3" s="129"/>
-      <c r="BD3" s="129"/>
-      <c r="BE3" s="129"/>
-      <c r="BF3" s="129"/>
-      <c r="BG3" s="129"/>
-      <c r="BH3" s="130"/>
+      <c r="AK3" s="133"/>
+      <c r="AL3" s="133"/>
+      <c r="AM3" s="134"/>
+      <c r="AN3" s="159"/>
+      <c r="AO3" s="160"/>
+      <c r="AP3" s="160"/>
+      <c r="AQ3" s="160"/>
+      <c r="AR3" s="160"/>
+      <c r="AS3" s="160"/>
+      <c r="AT3" s="160"/>
+      <c r="AU3" s="160"/>
+      <c r="AV3" s="161"/>
+      <c r="AW3" s="132"/>
+      <c r="AX3" s="133"/>
+      <c r="AY3" s="133"/>
+      <c r="AZ3" s="134"/>
+      <c r="BA3" s="159"/>
+      <c r="BB3" s="160"/>
+      <c r="BC3" s="160"/>
+      <c r="BD3" s="160"/>
+      <c r="BE3" s="160"/>
+      <c r="BF3" s="160"/>
+      <c r="BG3" s="160"/>
+      <c r="BH3" s="161"/>
       <c r="BI3" s="15"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="151"/>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="157"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="158"/>
-      <c r="AD4" s="158"/>
-      <c r="AE4" s="158"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="114" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="122"/>
+      <c r="AH4" s="122"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="116"/>
-      <c r="AN4" s="131"/>
-      <c r="AO4" s="132"/>
-      <c r="AP4" s="132"/>
-      <c r="AQ4" s="132"/>
-      <c r="AR4" s="132"/>
-      <c r="AS4" s="132"/>
-      <c r="AT4" s="132"/>
-      <c r="AU4" s="132"/>
-      <c r="AV4" s="133"/>
-      <c r="AW4" s="114" t="s">
+      <c r="AK4" s="146"/>
+      <c r="AL4" s="146"/>
+      <c r="AM4" s="147"/>
+      <c r="AN4" s="162"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="164"/>
+      <c r="AW4" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="115"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="131"/>
-      <c r="BB4" s="132"/>
-      <c r="BC4" s="132"/>
-      <c r="BD4" s="132"/>
-      <c r="BE4" s="132"/>
-      <c r="BF4" s="132"/>
-      <c r="BG4" s="132"/>
-      <c r="BH4" s="133"/>
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="146"/>
+      <c r="AZ4" s="147"/>
+      <c r="BA4" s="162"/>
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="163"/>
+      <c r="BH4" s="164"/>
     </row>
     <row r="5" spans="1:61" s="10" customFormat="1">
       <c r="A5" s="14"/>
@@ -5364,153 +5362,153 @@
       <c r="BI5" s="14"/>
     </row>
     <row r="6" spans="1:61" ht="14.4">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="136" t="s">
+      <c r="B6" s="124"/>
+      <c r="C6" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="137"/>
-      <c r="S6" s="137"/>
-      <c r="T6" s="141" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
+      <c r="T6" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142"/>
-      <c r="AB6" s="143"/>
-      <c r="AC6" s="141" t="s">
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
-      <c r="AM6" s="143"/>
-      <c r="AN6" s="141" t="s">
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="127"/>
+      <c r="AG6" s="127"/>
+      <c r="AH6" s="127"/>
+      <c r="AI6" s="127"/>
+      <c r="AJ6" s="127"/>
+      <c r="AK6" s="127"/>
+      <c r="AL6" s="127"/>
+      <c r="AM6" s="128"/>
+      <c r="AN6" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="AO6" s="142"/>
-      <c r="AP6" s="142"/>
-      <c r="AQ6" s="143"/>
-      <c r="AR6" s="141" t="s">
+      <c r="AO6" s="127"/>
+      <c r="AP6" s="127"/>
+      <c r="AQ6" s="128"/>
+      <c r="AR6" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="AS6" s="142"/>
-      <c r="AT6" s="143"/>
-      <c r="AU6" s="141" t="s">
+      <c r="AS6" s="127"/>
+      <c r="AT6" s="128"/>
+      <c r="AU6" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="AV6" s="142"/>
-      <c r="AW6" s="143"/>
-      <c r="AX6" s="141" t="s">
+      <c r="AV6" s="127"/>
+      <c r="AW6" s="128"/>
+      <c r="AX6" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="142"/>
-      <c r="AZ6" s="143"/>
-      <c r="BA6" s="147" t="s">
+      <c r="AY6" s="127"/>
+      <c r="AZ6" s="128"/>
+      <c r="BA6" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="BB6" s="147"/>
-      <c r="BC6" s="147"/>
-      <c r="BD6" s="147"/>
-      <c r="BE6" s="147"/>
-      <c r="BF6" s="147"/>
-      <c r="BG6" s="147"/>
-      <c r="BH6" s="147"/>
+      <c r="BB6" s="143"/>
+      <c r="BC6" s="143"/>
+      <c r="BD6" s="143"/>
+      <c r="BE6" s="143"/>
+      <c r="BF6" s="143"/>
+      <c r="BG6" s="143"/>
+      <c r="BH6" s="143"/>
       <c r="BI6" s="16"/>
     </row>
     <row r="7" spans="1:61" s="11" customFormat="1" ht="14.4">
-      <c r="A7" s="161"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="138" t="s">
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139" t="s">
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="140" t="s">
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137"/>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="144"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="145"/>
-      <c r="AM7" s="146"/>
-      <c r="AN7" s="144"/>
-      <c r="AO7" s="145"/>
-      <c r="AP7" s="145"/>
-      <c r="AQ7" s="146"/>
-      <c r="AR7" s="144"/>
-      <c r="AS7" s="145"/>
-      <c r="AT7" s="146"/>
-      <c r="AU7" s="144"/>
-      <c r="AV7" s="145"/>
-      <c r="AW7" s="146"/>
-      <c r="AX7" s="144"/>
-      <c r="AY7" s="145"/>
-      <c r="AZ7" s="146"/>
-      <c r="BA7" s="147"/>
-      <c r="BB7" s="147"/>
-      <c r="BC7" s="147"/>
-      <c r="BD7" s="147"/>
-      <c r="BE7" s="147"/>
-      <c r="BF7" s="147"/>
-      <c r="BG7" s="147"/>
-      <c r="BH7" s="147"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="131"/>
+      <c r="AC7" s="129"/>
+      <c r="AD7" s="130"/>
+      <c r="AE7" s="130"/>
+      <c r="AF7" s="130"/>
+      <c r="AG7" s="130"/>
+      <c r="AH7" s="130"/>
+      <c r="AI7" s="130"/>
+      <c r="AJ7" s="130"/>
+      <c r="AK7" s="130"/>
+      <c r="AL7" s="130"/>
+      <c r="AM7" s="131"/>
+      <c r="AN7" s="129"/>
+      <c r="AO7" s="130"/>
+      <c r="AP7" s="130"/>
+      <c r="AQ7" s="131"/>
+      <c r="AR7" s="129"/>
+      <c r="AS7" s="130"/>
+      <c r="AT7" s="131"/>
+      <c r="AU7" s="129"/>
+      <c r="AV7" s="130"/>
+      <c r="AW7" s="131"/>
+      <c r="AX7" s="129"/>
+      <c r="AY7" s="130"/>
+      <c r="AZ7" s="131"/>
+      <c r="BA7" s="143"/>
+      <c r="BB7" s="143"/>
+      <c r="BC7" s="143"/>
+      <c r="BD7" s="143"/>
+      <c r="BE7" s="143"/>
+      <c r="BF7" s="143"/>
+      <c r="BG7" s="143"/>
+      <c r="BH7" s="143"/>
       <c r="BI7" s="17"/>
     </row>
     <row r="8" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
@@ -5533,7 +5531,7 @@
       <c r="K8" s="79"/>
       <c r="L8" s="80"/>
       <c r="M8" s="84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N8" s="85"/>
       <c r="O8" s="85"/>
@@ -5542,7 +5540,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
       <c r="T8" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U8" s="85"/>
       <c r="V8" s="85"/>
@@ -5552,8 +5550,8 @@
       <c r="Z8" s="85"/>
       <c r="AA8" s="85"/>
       <c r="AB8" s="85"/>
-      <c r="AC8" s="91" t="s">
-        <v>40</v>
+      <c r="AC8" s="103" t="s">
+        <v>39</v>
       </c>
       <c r="AD8" s="85"/>
       <c r="AE8" s="85"/>
@@ -5565,52 +5563,52 @@
       <c r="AK8" s="85"/>
       <c r="AL8" s="85"/>
       <c r="AM8" s="86"/>
-      <c r="AN8" s="95" t="s">
+      <c r="AN8" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="AO8" s="96"/>
-      <c r="AP8" s="96"/>
-      <c r="AQ8" s="97"/>
-      <c r="AR8" s="95" t="s">
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95"/>
+      <c r="AQ8" s="96"/>
+      <c r="AR8" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="AS8" s="96"/>
-      <c r="AT8" s="97"/>
-      <c r="AU8" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV8" s="96"/>
-      <c r="AW8" s="97"/>
-      <c r="AX8" s="95" t="s">
+      <c r="AS8" s="95"/>
+      <c r="AT8" s="96"/>
+      <c r="AU8" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV8" s="95"/>
+      <c r="AW8" s="96"/>
+      <c r="AX8" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AY8" s="96"/>
-      <c r="AZ8" s="97"/>
-      <c r="BA8" s="104" t="s">
+      <c r="AY8" s="95"/>
+      <c r="AZ8" s="96"/>
+      <c r="BA8" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="BB8" s="105"/>
-      <c r="BC8" s="105"/>
-      <c r="BD8" s="105"/>
-      <c r="BE8" s="105"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="105"/>
-      <c r="BH8" s="106"/>
+      <c r="BB8" s="92"/>
+      <c r="BC8" s="92"/>
+      <c r="BD8" s="92"/>
+      <c r="BE8" s="92"/>
+      <c r="BF8" s="92"/>
+      <c r="BG8" s="92"/>
+      <c r="BH8" s="93"/>
       <c r="BI8" s="18"/>
     </row>
     <row r="9" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
       <c r="A9" s="76"/>
       <c r="B9" s="77"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="103"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="111"/>
       <c r="M9" s="87"/>
       <c r="N9" s="87"/>
       <c r="O9" s="87"/>
@@ -5627,38 +5625,38 @@
       <c r="Z9" s="87"/>
       <c r="AA9" s="87"/>
       <c r="AB9" s="87"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="98"/>
-      <c r="AS9" s="99"/>
-      <c r="AT9" s="100"/>
-      <c r="AU9" s="98"/>
-      <c r="AV9" s="99"/>
-      <c r="AW9" s="100"/>
-      <c r="AX9" s="98"/>
-      <c r="AY9" s="99"/>
-      <c r="AZ9" s="100"/>
-      <c r="BA9" s="162"/>
-      <c r="BB9" s="163"/>
-      <c r="BC9" s="163"/>
-      <c r="BD9" s="163"/>
-      <c r="BE9" s="163"/>
-      <c r="BF9" s="163"/>
-      <c r="BG9" s="163"/>
-      <c r="BH9" s="164"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="97"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="97"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="99"/>
+      <c r="AU9" s="97"/>
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="99"/>
+      <c r="AX9" s="97"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="100"/>
+      <c r="BB9" s="101"/>
+      <c r="BC9" s="101"/>
+      <c r="BD9" s="101"/>
+      <c r="BE9" s="101"/>
+      <c r="BF9" s="101"/>
+      <c r="BG9" s="101"/>
+      <c r="BH9" s="102"/>
       <c r="BI9" s="18"/>
     </row>
     <row r="10" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
@@ -5666,11 +5664,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="75"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="103"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="78" t="s">
         <v>35</v>
       </c>
@@ -5679,7 +5677,7 @@
       <c r="K10" s="79"/>
       <c r="L10" s="80"/>
       <c r="M10" s="84" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N10" s="85"/>
       <c r="O10" s="85"/>
@@ -5688,7 +5686,7 @@
       <c r="R10" s="85"/>
       <c r="S10" s="86"/>
       <c r="T10" s="89" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="U10" s="85"/>
       <c r="V10" s="85"/>
@@ -5698,8 +5696,8 @@
       <c r="Z10" s="85"/>
       <c r="AA10" s="85"/>
       <c r="AB10" s="85"/>
-      <c r="AC10" s="91" t="s">
-        <v>40</v>
+      <c r="AC10" s="103" t="s">
+        <v>39</v>
       </c>
       <c r="AD10" s="85"/>
       <c r="AE10" s="85"/>
@@ -5711,47 +5709,47 @@
       <c r="AK10" s="85"/>
       <c r="AL10" s="85"/>
       <c r="AM10" s="86"/>
-      <c r="AN10" s="95" t="s">
+      <c r="AN10" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="95" t="s">
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="96"/>
+      <c r="AR10" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="97"/>
-      <c r="AU10" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV10" s="96"/>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="95" t="s">
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="96"/>
+      <c r="AU10" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="96"/>
+      <c r="AX10" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AY10" s="96"/>
-      <c r="AZ10" s="97"/>
-      <c r="BA10" s="107" t="s">
+      <c r="AY10" s="95"/>
+      <c r="AZ10" s="96"/>
+      <c r="BA10" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="BB10" s="134"/>
-      <c r="BC10" s="134"/>
-      <c r="BD10" s="134"/>
-      <c r="BE10" s="134"/>
-      <c r="BF10" s="134"/>
-      <c r="BG10" s="134"/>
-      <c r="BH10" s="135"/>
+      <c r="BB10" s="136"/>
+      <c r="BC10" s="136"/>
+      <c r="BD10" s="136"/>
+      <c r="BE10" s="136"/>
+      <c r="BF10" s="136"/>
+      <c r="BG10" s="136"/>
+      <c r="BH10" s="137"/>
       <c r="BI10" s="18"/>
     </row>
     <row r="11" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
       <c r="A11" s="76"/>
       <c r="B11" s="77"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="81"/>
       <c r="I11" s="82"/>
       <c r="J11" s="82"/>
@@ -5773,38 +5771,38 @@
       <c r="Z11" s="87"/>
       <c r="AA11" s="87"/>
       <c r="AB11" s="87"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="99"/>
-      <c r="AQ11" s="100"/>
-      <c r="AR11" s="98"/>
-      <c r="AS11" s="99"/>
-      <c r="AT11" s="100"/>
-      <c r="AU11" s="98"/>
-      <c r="AV11" s="99"/>
-      <c r="AW11" s="100"/>
-      <c r="AX11" s="98"/>
-      <c r="AY11" s="99"/>
-      <c r="AZ11" s="100"/>
-      <c r="BA11" s="104"/>
-      <c r="BB11" s="165"/>
-      <c r="BC11" s="165"/>
-      <c r="BD11" s="165"/>
-      <c r="BE11" s="165"/>
-      <c r="BF11" s="165"/>
-      <c r="BG11" s="165"/>
-      <c r="BH11" s="166"/>
+      <c r="AC11" s="104"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="105"/>
+      <c r="AF11" s="105"/>
+      <c r="AG11" s="105"/>
+      <c r="AH11" s="105"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="105"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="97"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="97"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="99"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="99"/>
+      <c r="AX11" s="97"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="99"/>
+      <c r="BA11" s="91"/>
+      <c r="BB11" s="107"/>
+      <c r="BC11" s="107"/>
+      <c r="BD11" s="107"/>
+      <c r="BE11" s="107"/>
+      <c r="BF11" s="107"/>
+      <c r="BG11" s="107"/>
+      <c r="BH11" s="108"/>
       <c r="BI11" s="18"/>
     </row>
     <row r="12" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
@@ -5812,11 +5810,11 @@
         <v>3</v>
       </c>
       <c r="B12" s="75"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="78" t="s">
         <v>35</v>
       </c>
@@ -5825,7 +5823,7 @@
       <c r="K12" s="79"/>
       <c r="L12" s="80"/>
       <c r="M12" s="84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N12" s="85"/>
       <c r="O12" s="85"/>
@@ -5834,7 +5832,7 @@
       <c r="R12" s="85"/>
       <c r="S12" s="86"/>
       <c r="T12" s="89" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U12" s="85"/>
       <c r="V12" s="85"/>
@@ -5844,8 +5842,8 @@
       <c r="Z12" s="85"/>
       <c r="AA12" s="85"/>
       <c r="AB12" s="85"/>
-      <c r="AC12" s="91" t="s">
-        <v>40</v>
+      <c r="AC12" s="103" t="s">
+        <v>39</v>
       </c>
       <c r="AD12" s="85"/>
       <c r="AE12" s="85"/>
@@ -5857,52 +5855,52 @@
       <c r="AK12" s="85"/>
       <c r="AL12" s="85"/>
       <c r="AM12" s="86"/>
-      <c r="AN12" s="95" t="s">
+      <c r="AN12" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="95" t="s">
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="96"/>
+      <c r="AR12" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="AS12" s="96"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV12" s="96"/>
-      <c r="AW12" s="97"/>
-      <c r="AX12" s="95" t="s">
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="96"/>
+      <c r="AU12" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="96"/>
+      <c r="AX12" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AY12" s="96"/>
-      <c r="AZ12" s="97"/>
-      <c r="BA12" s="107" t="s">
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="96"/>
+      <c r="BA12" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="BB12" s="134"/>
-      <c r="BC12" s="134"/>
-      <c r="BD12" s="134"/>
-      <c r="BE12" s="134"/>
-      <c r="BF12" s="134"/>
-      <c r="BG12" s="134"/>
-      <c r="BH12" s="135"/>
+      <c r="BB12" s="136"/>
+      <c r="BC12" s="136"/>
+      <c r="BD12" s="136"/>
+      <c r="BE12" s="136"/>
+      <c r="BF12" s="136"/>
+      <c r="BG12" s="136"/>
+      <c r="BH12" s="137"/>
       <c r="BI12" s="18"/>
     </row>
     <row r="13" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
       <c r="A13" s="76"/>
       <c r="B13" s="77"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="111"/>
       <c r="M13" s="87"/>
       <c r="N13" s="87"/>
       <c r="O13" s="87"/>
@@ -5919,38 +5917,38 @@
       <c r="Z13" s="87"/>
       <c r="AA13" s="87"/>
       <c r="AB13" s="87"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="99"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="98"/>
-      <c r="AS13" s="99"/>
-      <c r="AT13" s="100"/>
-      <c r="AU13" s="98"/>
-      <c r="AV13" s="99"/>
-      <c r="AW13" s="100"/>
-      <c r="AX13" s="98"/>
-      <c r="AY13" s="99"/>
-      <c r="AZ13" s="100"/>
-      <c r="BA13" s="104"/>
-      <c r="BB13" s="165"/>
-      <c r="BC13" s="165"/>
-      <c r="BD13" s="165"/>
-      <c r="BE13" s="165"/>
-      <c r="BF13" s="165"/>
-      <c r="BG13" s="165"/>
-      <c r="BH13" s="166"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="105"/>
+      <c r="AE13" s="105"/>
+      <c r="AF13" s="105"/>
+      <c r="AG13" s="105"/>
+      <c r="AH13" s="105"/>
+      <c r="AI13" s="105"/>
+      <c r="AJ13" s="105"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="105"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="97"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="97"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="99"/>
+      <c r="AU13" s="97"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="99"/>
+      <c r="AX13" s="97"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="99"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="107"/>
+      <c r="BC13" s="107"/>
+      <c r="BD13" s="107"/>
+      <c r="BE13" s="107"/>
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="107"/>
+      <c r="BH13" s="108"/>
       <c r="BI13" s="18"/>
     </row>
     <row r="14" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
@@ -5958,11 +5956,11 @@
         <v>4</v>
       </c>
       <c r="B14" s="75"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
       <c r="H14" s="78" t="s">
         <v>35</v>
       </c>
@@ -5971,7 +5969,7 @@
       <c r="K14" s="79"/>
       <c r="L14" s="80"/>
       <c r="M14" s="84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="85"/>
@@ -5980,7 +5978,7 @@
       <c r="R14" s="85"/>
       <c r="S14" s="86"/>
       <c r="T14" s="89" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U14" s="85"/>
       <c r="V14" s="85"/>
@@ -5990,8 +5988,8 @@
       <c r="Z14" s="85"/>
       <c r="AA14" s="85"/>
       <c r="AB14" s="85"/>
-      <c r="AC14" s="91" t="s">
-        <v>40</v>
+      <c r="AC14" s="103" t="s">
+        <v>39</v>
       </c>
       <c r="AD14" s="85"/>
       <c r="AE14" s="85"/>
@@ -6003,47 +6001,47 @@
       <c r="AK14" s="85"/>
       <c r="AL14" s="85"/>
       <c r="AM14" s="86"/>
-      <c r="AN14" s="95" t="s">
+      <c r="AN14" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="97"/>
-      <c r="AR14" s="95" t="s">
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="96"/>
+      <c r="AR14" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="AS14" s="96"/>
-      <c r="AT14" s="97"/>
-      <c r="AU14" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="97"/>
-      <c r="AX14" s="95" t="s">
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="96"/>
+      <c r="AU14" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="96"/>
+      <c r="AX14" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AY14" s="96"/>
-      <c r="AZ14" s="97"/>
-      <c r="BA14" s="104" t="s">
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="96"/>
+      <c r="BA14" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="BB14" s="105"/>
-      <c r="BC14" s="105"/>
-      <c r="BD14" s="105"/>
-      <c r="BE14" s="105"/>
-      <c r="BF14" s="105"/>
-      <c r="BG14" s="105"/>
-      <c r="BH14" s="106"/>
+      <c r="BB14" s="92"/>
+      <c r="BC14" s="92"/>
+      <c r="BD14" s="92"/>
+      <c r="BE14" s="92"/>
+      <c r="BF14" s="92"/>
+      <c r="BG14" s="92"/>
+      <c r="BH14" s="93"/>
       <c r="BI14" s="18"/>
     </row>
     <row r="15" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
       <c r="A15" s="76"/>
       <c r="B15" s="77"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="81"/>
       <c r="I15" s="82"/>
       <c r="J15" s="82"/>
@@ -6065,38 +6063,38 @@
       <c r="Z15" s="87"/>
       <c r="AA15" s="87"/>
       <c r="AB15" s="87"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="93"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="98"/>
-      <c r="AS15" s="99"/>
-      <c r="AT15" s="100"/>
-      <c r="AU15" s="98"/>
-      <c r="AV15" s="99"/>
-      <c r="AW15" s="100"/>
-      <c r="AX15" s="98"/>
-      <c r="AY15" s="99"/>
-      <c r="AZ15" s="100"/>
-      <c r="BA15" s="104"/>
-      <c r="BB15" s="105"/>
-      <c r="BC15" s="105"/>
-      <c r="BD15" s="105"/>
-      <c r="BE15" s="105"/>
-      <c r="BF15" s="105"/>
-      <c r="BG15" s="105"/>
-      <c r="BH15" s="106"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="105"/>
+      <c r="AH15" s="105"/>
+      <c r="AI15" s="105"/>
+      <c r="AJ15" s="105"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="105"/>
+      <c r="AM15" s="106"/>
+      <c r="AN15" s="97"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="98"/>
+      <c r="AT15" s="99"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="98"/>
+      <c r="AW15" s="99"/>
+      <c r="AX15" s="97"/>
+      <c r="AY15" s="98"/>
+      <c r="AZ15" s="99"/>
+      <c r="BA15" s="91"/>
+      <c r="BB15" s="92"/>
+      <c r="BC15" s="92"/>
+      <c r="BD15" s="92"/>
+      <c r="BE15" s="92"/>
+      <c r="BF15" s="92"/>
+      <c r="BG15" s="92"/>
+      <c r="BH15" s="93"/>
       <c r="BI15" s="57"/>
     </row>
     <row r="16" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
@@ -6104,11 +6102,11 @@
         <v>5</v>
       </c>
       <c r="B16" s="75"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="111"/>
       <c r="H16" s="78" t="s">
         <v>35</v>
       </c>
@@ -6117,7 +6115,7 @@
       <c r="K16" s="79"/>
       <c r="L16" s="80"/>
       <c r="M16" s="84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N16" s="85"/>
       <c r="O16" s="85"/>
@@ -6126,7 +6124,7 @@
       <c r="R16" s="85"/>
       <c r="S16" s="86"/>
       <c r="T16" s="89" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U16" s="85"/>
       <c r="V16" s="85"/>
@@ -6136,8 +6134,8 @@
       <c r="Z16" s="85"/>
       <c r="AA16" s="85"/>
       <c r="AB16" s="85"/>
-      <c r="AC16" s="91" t="s">
-        <v>53</v>
+      <c r="AC16" s="103" t="s">
+        <v>50</v>
       </c>
       <c r="AD16" s="85"/>
       <c r="AE16" s="85"/>
@@ -6149,52 +6147,52 @@
       <c r="AK16" s="85"/>
       <c r="AL16" s="85"/>
       <c r="AM16" s="86"/>
-      <c r="AN16" s="95" t="s">
+      <c r="AN16" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="97"/>
-      <c r="AR16" s="95" t="s">
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="96"/>
+      <c r="AR16" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="AS16" s="96"/>
-      <c r="AT16" s="97"/>
-      <c r="AU16" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="97"/>
-      <c r="AX16" s="95" t="s">
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="96"/>
+      <c r="AU16" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="96"/>
+      <c r="AX16" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AY16" s="96"/>
-      <c r="AZ16" s="97"/>
-      <c r="BA16" s="104" t="s">
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="96"/>
+      <c r="BA16" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="BB16" s="105"/>
-      <c r="BC16" s="105"/>
-      <c r="BD16" s="105"/>
-      <c r="BE16" s="105"/>
-      <c r="BF16" s="105"/>
-      <c r="BG16" s="105"/>
-      <c r="BH16" s="106"/>
+      <c r="BB16" s="92"/>
+      <c r="BC16" s="92"/>
+      <c r="BD16" s="92"/>
+      <c r="BE16" s="92"/>
+      <c r="BF16" s="92"/>
+      <c r="BG16" s="92"/>
+      <c r="BH16" s="93"/>
       <c r="BI16" s="59"/>
     </row>
     <row r="17" spans="1:61" s="12" customFormat="1" ht="94.5" customHeight="1">
       <c r="A17" s="76"/>
       <c r="B17" s="77"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="103"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="111"/>
       <c r="M17" s="87"/>
       <c r="N17" s="87"/>
       <c r="O17" s="87"/>
@@ -6211,38 +6209,38 @@
       <c r="Z17" s="87"/>
       <c r="AA17" s="87"/>
       <c r="AB17" s="87"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-      <c r="AI17" s="93"/>
-      <c r="AJ17" s="93"/>
-      <c r="AK17" s="93"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="99"/>
-      <c r="AP17" s="99"/>
-      <c r="AQ17" s="100"/>
-      <c r="AR17" s="98"/>
-      <c r="AS17" s="99"/>
-      <c r="AT17" s="100"/>
-      <c r="AU17" s="98"/>
-      <c r="AV17" s="99"/>
-      <c r="AW17" s="100"/>
-      <c r="AX17" s="98"/>
-      <c r="AY17" s="99"/>
-      <c r="AZ17" s="100"/>
-      <c r="BA17" s="107"/>
-      <c r="BB17" s="108"/>
-      <c r="BC17" s="108"/>
-      <c r="BD17" s="108"/>
-      <c r="BE17" s="108"/>
-      <c r="BF17" s="108"/>
-      <c r="BG17" s="108"/>
-      <c r="BH17" s="109"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="105"/>
+      <c r="AE17" s="105"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="105"/>
+      <c r="AH17" s="105"/>
+      <c r="AI17" s="105"/>
+      <c r="AJ17" s="105"/>
+      <c r="AK17" s="105"/>
+      <c r="AL17" s="105"/>
+      <c r="AM17" s="106"/>
+      <c r="AN17" s="97"/>
+      <c r="AO17" s="98"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="97"/>
+      <c r="AS17" s="98"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="97"/>
+      <c r="AV17" s="98"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="97"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="99"/>
+      <c r="BA17" s="135"/>
+      <c r="BB17" s="165"/>
+      <c r="BC17" s="165"/>
+      <c r="BD17" s="165"/>
+      <c r="BE17" s="165"/>
+      <c r="BF17" s="165"/>
+      <c r="BG17" s="165"/>
+      <c r="BH17" s="166"/>
       <c r="BI17" s="18"/>
     </row>
     <row r="18" spans="1:61" s="60" customFormat="1" ht="94.5" customHeight="1">
@@ -6250,11 +6248,11 @@
         <v>6</v>
       </c>
       <c r="B18" s="75"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
       <c r="H18" s="78" t="s">
         <v>35</v>
       </c>
@@ -6263,7 +6261,7 @@
       <c r="K18" s="79"/>
       <c r="L18" s="80"/>
       <c r="M18" s="84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85"/>
@@ -6272,7 +6270,7 @@
       <c r="R18" s="85"/>
       <c r="S18" s="86"/>
       <c r="T18" s="89" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U18" s="85"/>
       <c r="V18" s="85"/>
@@ -6282,8 +6280,8 @@
       <c r="Z18" s="85"/>
       <c r="AA18" s="85"/>
       <c r="AB18" s="85"/>
-      <c r="AC18" s="91" t="s">
-        <v>53</v>
+      <c r="AC18" s="103" t="s">
+        <v>50</v>
       </c>
       <c r="AD18" s="85"/>
       <c r="AE18" s="85"/>
@@ -6295,47 +6293,47 @@
       <c r="AK18" s="85"/>
       <c r="AL18" s="85"/>
       <c r="AM18" s="86"/>
-      <c r="AN18" s="95" t="s">
+      <c r="AN18" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="97"/>
-      <c r="AR18" s="95" t="s">
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="96"/>
+      <c r="AR18" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="AS18" s="96"/>
-      <c r="AT18" s="97"/>
-      <c r="AU18" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="97"/>
-      <c r="AX18" s="95" t="s">
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="96"/>
+      <c r="AU18" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="96"/>
+      <c r="AX18" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="AY18" s="96"/>
-      <c r="AZ18" s="97"/>
-      <c r="BA18" s="104" t="s">
+      <c r="AY18" s="95"/>
+      <c r="AZ18" s="96"/>
+      <c r="BA18" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="BB18" s="105"/>
-      <c r="BC18" s="105"/>
-      <c r="BD18" s="105"/>
-      <c r="BE18" s="105"/>
-      <c r="BF18" s="105"/>
-      <c r="BG18" s="105"/>
-      <c r="BH18" s="106"/>
+      <c r="BB18" s="92"/>
+      <c r="BC18" s="92"/>
+      <c r="BD18" s="92"/>
+      <c r="BE18" s="92"/>
+      <c r="BF18" s="92"/>
+      <c r="BG18" s="92"/>
+      <c r="BH18" s="93"/>
       <c r="BI18" s="59"/>
     </row>
     <row r="19" spans="1:61" s="58" customFormat="1" ht="94.5" customHeight="1">
       <c r="A19" s="76"/>
       <c r="B19" s="77"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="111"/>
       <c r="H19" s="81"/>
       <c r="I19" s="82"/>
       <c r="J19" s="82"/>
@@ -6357,42 +6355,121 @@
       <c r="Z19" s="87"/>
       <c r="AA19" s="87"/>
       <c r="AB19" s="87"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="93"/>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="93"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="94"/>
-      <c r="AN19" s="98"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="98"/>
-      <c r="AS19" s="99"/>
-      <c r="AT19" s="100"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="100"/>
-      <c r="AX19" s="98"/>
-      <c r="AY19" s="99"/>
-      <c r="AZ19" s="100"/>
-      <c r="BA19" s="104"/>
-      <c r="BB19" s="105"/>
-      <c r="BC19" s="105"/>
-      <c r="BD19" s="105"/>
-      <c r="BE19" s="105"/>
-      <c r="BF19" s="105"/>
-      <c r="BG19" s="105"/>
-      <c r="BH19" s="106"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="105"/>
+      <c r="AM19" s="106"/>
+      <c r="AN19" s="97"/>
+      <c r="AO19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="97"/>
+      <c r="AS19" s="98"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="97"/>
+      <c r="AV19" s="98"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="97"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="99"/>
+      <c r="BA19" s="91"/>
+      <c r="BB19" s="92"/>
+      <c r="BC19" s="92"/>
+      <c r="BD19" s="92"/>
+      <c r="BE19" s="92"/>
+      <c r="BF19" s="92"/>
+      <c r="BG19" s="92"/>
+      <c r="BH19" s="93"/>
       <c r="BI19" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="AN18:AQ19"/>
+    <mergeCell ref="AR18:AT19"/>
+    <mergeCell ref="AU18:AW19"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="H14:L15"/>
+    <mergeCell ref="M14:S15"/>
+    <mergeCell ref="T14:AB15"/>
+    <mergeCell ref="AC14:AM15"/>
+    <mergeCell ref="H16:L17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="M16:S17"/>
+    <mergeCell ref="T16:AB17"/>
+    <mergeCell ref="AC16:AM17"/>
+    <mergeCell ref="AN14:AQ15"/>
+    <mergeCell ref="AN16:AQ17"/>
+    <mergeCell ref="AX18:AZ19"/>
+    <mergeCell ref="BA18:BH18"/>
+    <mergeCell ref="BA19:BH19"/>
+    <mergeCell ref="AU16:AW17"/>
+    <mergeCell ref="AX14:AZ15"/>
+    <mergeCell ref="AX16:AZ17"/>
+    <mergeCell ref="BA16:BH16"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="BA14:BH14"/>
+    <mergeCell ref="BA15:BH15"/>
+    <mergeCell ref="AR14:AT15"/>
+    <mergeCell ref="AR16:AT17"/>
+    <mergeCell ref="AU14:AW15"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BH2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="BA10:BH10"/>
+    <mergeCell ref="BA12:BH12"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="AN6:AQ7"/>
+    <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="AR12:AT13"/>
+    <mergeCell ref="AU12:AW13"/>
+    <mergeCell ref="AX12:AZ13"/>
+    <mergeCell ref="AN12:AQ13"/>
+    <mergeCell ref="BA13:BH13"/>
+    <mergeCell ref="H12:L13"/>
+    <mergeCell ref="M12:S13"/>
+    <mergeCell ref="T12:AB13"/>
+    <mergeCell ref="AC12:AM13"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="H3:AI4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="T6:AB7"/>
+    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="T8:AB9"/>
+    <mergeCell ref="AJ3:AM3"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="H10:L11"/>
     <mergeCell ref="M10:S11"/>
@@ -6417,85 +6494,6 @@
     <mergeCell ref="T18:AB19"/>
     <mergeCell ref="AC18:AM19"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:L13"/>
-    <mergeCell ref="M12:S13"/>
-    <mergeCell ref="T12:AB13"/>
-    <mergeCell ref="AC12:AM13"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="H3:AI4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="T6:AB7"/>
-    <mergeCell ref="AC6:AM7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="M8:S9"/>
-    <mergeCell ref="T8:AB9"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="BA10:BH10"/>
-    <mergeCell ref="BA12:BH12"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="AR6:AT7"/>
-    <mergeCell ref="AU6:AW7"/>
-    <mergeCell ref="AX6:AZ7"/>
-    <mergeCell ref="AN6:AQ7"/>
-    <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="AR12:AT13"/>
-    <mergeCell ref="AU12:AW13"/>
-    <mergeCell ref="AX12:AZ13"/>
-    <mergeCell ref="AN12:AQ13"/>
-    <mergeCell ref="BA13:BH13"/>
-    <mergeCell ref="AR14:AT15"/>
-    <mergeCell ref="AR16:AT17"/>
-    <mergeCell ref="AU14:AW15"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BH2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AN3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BA4:BH4"/>
-    <mergeCell ref="AX18:AZ19"/>
-    <mergeCell ref="BA18:BH18"/>
-    <mergeCell ref="BA19:BH19"/>
-    <mergeCell ref="AU16:AW17"/>
-    <mergeCell ref="AX14:AZ15"/>
-    <mergeCell ref="AX16:AZ17"/>
-    <mergeCell ref="BA16:BH16"/>
-    <mergeCell ref="BA17:BH17"/>
-    <mergeCell ref="BA14:BH14"/>
-    <mergeCell ref="BA15:BH15"/>
-    <mergeCell ref="AN18:AQ19"/>
-    <mergeCell ref="AR18:AT19"/>
-    <mergeCell ref="AU18:AW19"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="H14:L15"/>
-    <mergeCell ref="M14:S15"/>
-    <mergeCell ref="T14:AB15"/>
-    <mergeCell ref="AC14:AM15"/>
-    <mergeCell ref="H16:L17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="M16:S17"/>
-    <mergeCell ref="T16:AB17"/>
-    <mergeCell ref="AC16:AM17"/>
-    <mergeCell ref="AN14:AQ15"/>
-    <mergeCell ref="AN16:AQ17"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR12 AR14 AR16 AR18">
